--- a/reports/2026-02-12.xlsx
+++ b/reports/2026-02-12.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-12 05:39 UTC</t>
+          <t>2026-02-12 17:46 UTC</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -666,31 +666,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.69</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$1.72B</t>
+          <t>$397.47M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$11.10M</t>
+          <t>$3.58M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>55</v>
+        <v>62.13</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>60.66</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -712,31 +712,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$193.20M</t>
+          <t>$1.75B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$20.80M</t>
+          <t>$9.79M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>52.5</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -748,13 +748,9 @@
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>100</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>overextended</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -762,31 +758,31 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$3.43</t>
+          <t>$0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$2.17B</t>
+          <t>$154.98M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$56.95M</t>
+          <t>$23.79M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
@@ -795,12 +791,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
         <v>100</v>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>overextended</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -808,27 +808,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>UNIUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.16</t>
+          <t>$3.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$377.54M</t>
+          <t>$2.06B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$2.77M</t>
+          <t>$27.97M</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -841,10 +841,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -854,27 +854,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>MYXUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>MYX Finance</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.67</t>
+          <t>$2.90</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$144.69M</t>
+          <t>$736.12M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$2.03M</t>
+          <t>$2.00M</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -900,31 +900,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>PUMPUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>Pump.fun</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$3.23</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$815.34M</t>
+          <t>$676.41M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.00M</t>
+          <t>$1.91M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>50</v>
+        <v>48.71</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>93.55</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -946,31 +946,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SUSDT</t>
+          <t>PENGUUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sonic</t>
+          <t>Pudgy Penguins</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$135.82M</t>
+          <t>$388.51M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.62M</t>
+          <t>$3.82M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>48.91</v>
+        <v>42.62</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>94.53</v>
+        <v>63.12</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -992,43 +992,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>NEAR Protocol</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$16.62</t>
+          <t>$0.95</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$323.68M</t>
+          <t>$1.23B</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$7.27M</t>
+          <t>$8.59M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>32.66</v>
+        <v>32.83</v>
       </c>
       <c r="H9" t="n">
-        <v>92.2</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.16</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1038,43 +1038,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IPUSDT</t>
+          <t>RIVERUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Story</t>
+          <t>River</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$1.13</t>
+          <t>$19.51</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$395.20M</t>
+          <t>$387.27M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.61M</t>
+          <t>$4.18M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>32.09</v>
+        <v>32.66</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>92.2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>10.47</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1084,49 +1084,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>CAKEUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>PancakeSwap</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$2.10</t>
+          <t>$1.29</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$627.52M</t>
+          <t>$426.73M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$12.50M</t>
+          <t>$1.08M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>31.5</v>
+        <v>32.23</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>overextended</t>
-        </is>
-      </c>
+        <v>11.13</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L11"/>
@@ -1241,17 +1237,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$0.73</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$193.20M</t>
+          <t>$154.98M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$20.80M</t>
+          <t>$23.79M</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -1287,17 +1283,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$2.10</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$627.52M</t>
+          <t>$611.00M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$12.50M</t>
+          <t>$8.87M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1338,12 +1334,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$119.99M</t>
+          <t>$116.86M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$2.66M</t>
+          <t>$1.26M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1369,40 +1365,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.69</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$1.72B</t>
+          <t>$397.47M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$11.10M</t>
+          <t>$3.58M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>36.31</v>
+        <v>62.3</v>
       </c>
       <c r="H5" t="n">
-        <v>9.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>90.98</v>
       </c>
       <c r="J5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K5" t="n">
         <v>100</v>
@@ -1415,40 +1411,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.51</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$509.23M</t>
+          <t>$1.75B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$5.64M</t>
+          <t>$9.79M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>36.31</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K6" t="n">
         <v>100</v>
@@ -1461,27 +1457,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>PIPPINUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>pippin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.16</t>
+          <t>$0.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$377.54M</t>
+          <t>$444.13M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.77M</t>
+          <t>$6.00M</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1517,17 +1513,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$3.43</t>
+          <t>$3.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$2.17B</t>
+          <t>$2.06B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$56.95M</t>
+          <t>$27.97M</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1553,27 +1549,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>MYXUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>MYX Finance</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.67</t>
+          <t>$2.90</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$144.69M</t>
+          <t>$736.12M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$2.03M</t>
+          <t>$2.00M</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1599,27 +1595,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>PUMPUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>Pump.fun</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$3.23</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$815.34M</t>
+          <t>$676.41M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$2.00M</t>
+          <t>$1.91M</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1645,37 +1641,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SUSDT</t>
+          <t>PENGUUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sonic</t>
+          <t>Pudgy Penguins</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$0.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$135.82M</t>
+          <t>$388.51M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.62M</t>
+          <t>$3.82M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>100</v>
+        <v>94.68000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1788,31 +1784,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.91</t>
+          <t>$2.05</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$193.20M</t>
+          <t>$611.00M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$20.80M</t>
+          <t>$8.87M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -1821,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -1834,31 +1830,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>STGUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>Stargate Finance</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$2.10</t>
+          <t>$0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$627.52M</t>
+          <t>$116.86M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$12.50M</t>
+          <t>$1.26M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>67.5</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -1867,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
         <v>100</v>
@@ -1880,27 +1876,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stargate Finance</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.18</t>
+          <t>$0.73</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$119.99M</t>
+          <t>$154.98M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$2.66M</t>
+          <t>$23.79M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -1926,43 +1922,43 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.69</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$1.72B</t>
+          <t>$397.47M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$11.10M</t>
+          <t>$3.58M</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>58</v>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="I5" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
         <v>80</v>
-      </c>
-      <c r="J5" t="n">
-        <v>80</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1972,43 +1968,43 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.51</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$509.23M</t>
+          <t>$1.75B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$5.64M</t>
+          <t>$9.79M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>50.53</v>
+        <v>53</v>
       </c>
       <c r="H6" t="n">
         <v>60</v>
       </c>
       <c r="I6" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K6" t="n">
-        <v>12.67</v>
+        <v>0</v>
       </c>
       <c r="L6" t="inlineStr"/>
     </row>
@@ -2018,31 +2014,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>STABLEUSDT</t>
+          <t>PIPPINUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>pippin</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$0.45</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$407.55M</t>
+          <t>$444.13M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2.34M</t>
+          <t>$6.00M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>48</v>
+        <v>38.03</v>
       </c>
       <c r="H7" t="n">
         <v>60</v>
@@ -2051,10 +2047,10 @@
         <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.67</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -2064,40 +2060,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>STABLEUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.16</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$377.54M</t>
+          <t>$398.75M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$2.77M</t>
+          <t>$1.65M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>37</v>
+        <v>35.5</v>
       </c>
       <c r="H8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I8" t="n">
         <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -2110,43 +2106,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0GUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0G</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.67</t>
+          <t>$1.39</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$144.69M</t>
+          <t>$234.11M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$2.03M</t>
+          <t>$2.18M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>21.25</v>
+        <v>16.25</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2160,43 +2156,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SUSDT</t>
+          <t>BDXUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sonic</t>
+          <t>Beldex</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$0.05</t>
+          <t>$0.08</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$135.82M</t>
+          <t>$616.37M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.62M</t>
+          <t>$1.53M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>21.25</v>
+        <v>15.6</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J10" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -2210,43 +2206,43 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>PUMPUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Pump.fun</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$1.47</t>
+          <t>$0.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$247.39M</t>
+          <t>$676.41M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$2.32M</t>
+          <t>$1.91M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>

--- a/reports/2026-02-12.xlsx
+++ b/reports/2026-02-12.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-12 17:46 UTC</t>
+          <t>2026-02-12 23:05 UTC</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -681,16 +681,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$397.47M</t>
+          <t>$400.92M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$3.58M</t>
+          <t>$3.32M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>62.13</v>
+        <v>56.39</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -702,7 +702,7 @@
         <v>80</v>
       </c>
       <c r="K2" t="n">
-        <v>60.66</v>
+        <v>31.95</v>
       </c>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -727,12 +727,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$1.75B</t>
+          <t>$1.76B</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$9.79M</t>
+          <t>$9.99M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -768,17 +768,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.73</t>
+          <t>$0.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$154.98M</t>
+          <t>$159.62M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$23.79M</t>
+          <t>$12.74M</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -818,17 +818,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$3.25</t>
+          <t>$3.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$2.06B</t>
+          <t>$2.05B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$27.97M</t>
+          <t>$19.48M</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -854,27 +854,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>AAVEUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$2.90</t>
+          <t>$112.61</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$736.12M</t>
+          <t>$1.72B</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$2.00M</t>
+          <t>$10.21M</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -915,16 +915,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$676.41M</t>
+          <t>$682.05M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1.91M</t>
+          <t>$2.35M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>48.71</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
         <v>100</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>93.55</v>
+        <v>100</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -946,31 +946,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PENGUUSDT</t>
+          <t>MYXUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>MYX Finance</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$3.15</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$388.51M</t>
+          <t>$782.46M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$3.82M</t>
+          <t>$1.75M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>42.62</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>63.12</v>
+        <v>100</v>
       </c>
       <c r="L8" t="inlineStr"/>
     </row>
@@ -992,31 +992,31 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>SEIUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NEAR Protocol</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$0.95</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$1.23B</t>
+          <t>$491.07M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$8.59M</t>
+          <t>$2.42M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>32.83</v>
+        <v>46.19</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>14.16</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="L9" t="inlineStr"/>
     </row>
@@ -1038,43 +1038,43 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>RIVERUSDT</t>
+          <t>MNTUSDT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>Mantle</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>$19.51</t>
+          <t>$0.61</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$387.27M</t>
+          <t>$1.99B</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$4.18M</t>
+          <t>$2.12M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>32.66</v>
+        <v>38.57</v>
       </c>
       <c r="H10" t="n">
-        <v>92.2</v>
+        <v>100</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>42.87</v>
       </c>
       <c r="L10" t="inlineStr"/>
     </row>
@@ -1084,31 +1084,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CAKEUSDT</t>
+          <t>SUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>Sonic</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$1.29</t>
+          <t>$0.04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$426.73M</t>
+          <t>$129.06M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.08M</t>
+          <t>$1.37M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>32.23</v>
+        <v>33.11</v>
       </c>
       <c r="H11" t="n">
         <v>100</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>11.13</v>
+        <v>15.54</v>
       </c>
       <c r="L11" t="inlineStr"/>
     </row>
@@ -1237,24 +1237,24 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$0.73</t>
+          <t>$0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$154.98M</t>
+          <t>$159.62M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$23.79M</t>
+          <t>$12.74M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1283,17 +1283,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$2.05</t>
+          <t>$1.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$611.00M</t>
+          <t>$580.97M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$8.87M</t>
+          <t>$8.10M</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -1319,43 +1319,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>HUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Stargate Finance</t>
+          <t>Humanity Protocol</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.18</t>
+          <t>$0.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$116.86M</t>
+          <t>$400.92M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$1.26M</t>
+          <t>$3.32M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>64.86</v>
+        <v>49.38</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>100</v>
+        <v>47.93</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>99.08</v>
+        <v>100</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -1365,40 +1365,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Humanity Protocol</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$0.17</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$397.47M</t>
+          <t>$1.76B</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$3.58M</t>
+          <t>$9.99M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>62.3</v>
+        <v>43.43</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>29.81</v>
       </c>
       <c r="I5" t="n">
-        <v>90.98</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K5" t="n">
         <v>100</v>
@@ -1411,40 +1411,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>PIPPINUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>pippin</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.71</t>
+          <t>$0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.75B</t>
+          <t>$518.05M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$9.79M</t>
+          <t>$6.06M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>36.31</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>9.460000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
         <v>100</v>
@@ -1457,43 +1457,43 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PIPPINUSDT</t>
+          <t>UNIUSDT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>pippin</t>
+          <t>Uniswap</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.45</t>
+          <t>$3.23</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$444.13M</t>
+          <t>$2.05B</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$6.00M</t>
+          <t>$19.48M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -1503,27 +1503,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>AAVEUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>Aave</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$3.25</t>
+          <t>$112.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$2.06B</t>
+          <t>$1.72B</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$27.97M</t>
+          <t>$10.21M</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1549,27 +1549,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MYXUSDT</t>
+          <t>SEIUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MYX Finance</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$2.90</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$736.12M</t>
+          <t>$491.07M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$2.00M</t>
+          <t>$2.42M</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1610,12 +1610,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$676.41M</t>
+          <t>$682.05M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.91M</t>
+          <t>$2.35M</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -1641,37 +1641,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PENGUUSDT</t>
+          <t>MYXUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>MYX Finance</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.01</t>
+          <t>$3.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$388.51M</t>
+          <t>$782.46M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$3.82M</t>
+          <t>$1.75M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>28.4</v>
+        <v>30</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>94.68000000000001</v>
+        <v>100</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1784,31 +1784,31 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZROUSDT</t>
+          <t>BERAUSDT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>LayerZero</t>
+          <t>Berachain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>$2.05</t>
+          <t>$0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>$611.00M</t>
+          <t>$159.62M</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$8.87M</t>
+          <t>$12.74M</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>67.5</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
@@ -1817,7 +1817,7 @@
         <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K2" t="n">
         <v>100</v>
@@ -1830,31 +1830,31 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>STGUSDT</t>
+          <t>ZROUSDT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stargate Finance</t>
+          <t>LayerZero</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>$0.18</t>
+          <t>$1.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>$116.86M</t>
+          <t>$580.97M</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$1.26M</t>
+          <t>$8.10M</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>67.5</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
@@ -1863,7 +1863,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="K3" t="n">
         <v>100</v>
@@ -1876,43 +1876,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BERAUSDT</t>
+          <t>ASTERUSDT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Berachain</t>
+          <t>Aster</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$0.73</t>
+          <t>$0.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>$154.98M</t>
+          <t>$1.76B</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$23.79M</t>
+          <t>$9.99M</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>67.5</v>
+        <v>58</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L4" t="inlineStr"/>
     </row>
@@ -1937,16 +1937,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>$397.47M</t>
+          <t>$400.92M</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$3.58M</t>
+          <t>$3.32M</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>50.59</v>
       </c>
       <c r="H5" t="n">
         <v>40</v>
@@ -1955,10 +1955,10 @@
         <v>20</v>
       </c>
       <c r="J5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K5" t="n">
-        <v>80</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="L5" t="inlineStr"/>
     </row>
@@ -1968,40 +1968,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ASTERUSDT</t>
+          <t>STABLEUSDT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aster</t>
+          <t>Stable</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>$0.71</t>
+          <t>$0.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>$1.75B</t>
+          <t>$413.34M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$9.79M</t>
+          <t>$1.50M</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="H6" t="n">
         <v>60</v>
       </c>
       <c r="I6" t="n">
+        <v>20</v>
+      </c>
+      <c r="J6" t="n">
         <v>80</v>
-      </c>
-      <c r="J6" t="n">
-        <v>60</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2024,21 +2024,21 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$0.45</t>
+          <t>$0.52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$444.13M</t>
+          <t>$518.05M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$6.00M</t>
+          <t>$6.06M</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>38.03</v>
+        <v>39.18</v>
       </c>
       <c r="H7" t="n">
         <v>60</v>
@@ -2050,7 +2050,7 @@
         <v>50</v>
       </c>
       <c r="K7" t="n">
-        <v>12.67</v>
+        <v>18.4</v>
       </c>
       <c r="L7" t="inlineStr"/>
     </row>
@@ -2060,37 +2060,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>STABLEUSDT</t>
+          <t>AXSUSDT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Stable</t>
+          <t>Axie Infinity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>$0.02</t>
+          <t>$1.42</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>$398.75M</t>
+          <t>$239.89M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$1.65M</t>
+          <t>$1.83M</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>35.5</v>
+        <v>16.25</v>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="J8" t="n">
         <v>50</v>
@@ -2098,7 +2098,11 @@
       <c r="K8" t="n">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>broken_trend</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2106,43 +2110,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AXSUSDT</t>
+          <t>SEIUSDT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>Sei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$1.39</t>
+          <t>$0.07</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>$234.11M</t>
+          <t>$491.07M</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$2.18M</t>
+          <t>$2.42M</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>16.25</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -2171,16 +2175,16 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>$616.37M</t>
+          <t>$613.90M</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$1.53M</t>
+          <t>$1.68M</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -2192,7 +2196,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -2206,31 +2210,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PUMPUSDT</t>
+          <t>RIVERUSDT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Pump.fun</t>
+          <t>River</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$23.31</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>$676.41M</t>
+          <t>$466.15M</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$1.91M</t>
+          <t>$4.24M</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>13.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -2239,10 +2243,10 @@
         <v>10</v>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="K11" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
